--- a/biology/Microbiologie/Union_internationale_des_sociétés_de_microbiologie/Union_internationale_des_sociétés_de_microbiologie.xlsx
+++ b/biology/Microbiologie/Union_internationale_des_sociétés_de_microbiologie/Union_internationale_des_sociétés_de_microbiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
+          <t>Union_internationale_des_sociétés_de_microbiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Union internationale des sociétés de microbiologie (en anglais International Union of Microbiological Societies, IUMS) est une des 31 unions scientifiques du Conseil international pour la science (ICSU).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
+          <t>Union_internationale_des_sociétés_de_microbiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les objectifs de l'Union internationale des sociétés de microbiologie sont les suivants[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les objectifs de l'Union internationale des sociétés de microbiologie sont les suivants : 
 Promouvoir l'étude des sciences microbiologiques au niveau international ;
 Initier, faciliter et coordonner la recherche et d'autres activités scientifiques qui impliquent la coopération internationale ;
 Promouvoir la publication de l'étude et la recherche internationale ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
+          <t>Union_internationale_des_sociétés_de_microbiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,15 +560,52 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société internationale de microbiologie a été créée lors d'une cérémonie tenue le 28 avril 1927 à l'Institut Pasteur, à l'occasion d'une conférence internationale sur la rage, sous le patronage du Comité d'hygiène de la Société des Nations. Environ 34 personnes de 15 pays sont inscrites comme membres fondateurs.
 Les membres fondateurs de la société ont été invités à organiser des comités nationaux dans leur pays d'origine. Une invitation similaire a été adressée à d'autres pays qui n'avaient pas été représentés à la cérémonie de fondation.
 Le lauréat belge du prix Nobel, Jules Bordet, a été élu son premier président ; Rudolf Kraus (en) de Vienne (Autriche) secrétaire général, avec René Dujarric de la Rivière de Paris, Eugen Gildemeister (de) de Berlin (Allemagne) et Harry Plotz des États-Unis, secrétaires adjoints afin de gérer la correspondance en français, allemand et anglais respectivement.
 La Société internationale de microbiologie est devenue l'Association internationale des sociétés de microbiologie (International Association of Microbiological Societies, IAMS), une division affiliée à l'Union internationale des sciences biologiques (International Union of Biological Science, IUBS), en 1967.
 Elle a acquis son indépendance en 1980 et est devenue l’Union internationale des sociétés de microbiologie (International Union of Microbiological Societies, IUMS) et un membre de l'ICSU en 1982.
-Historique des présidents
-1927-1930      Jules Bordet               Belgique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Union_internationale_des_sociétés_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Historique des présidents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1927-1930      Jules Bordet               Belgique
 1931-1936      Jules Bordet               Belgique
 1936-1939      John Ledingham        Royaume-Uni 
 1939-1947      Thomas Milton Rivers  États-Unis
@@ -582,31 +633,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Union_internationale_des_sociétés_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L’Union internationale des sociétés de microbiologie est une des 31 unions scientifiques du Conseil international pour la science (ICSU).
 l’Union internationale des sociétés de microbiologie a décidé, en 1970, de créer trois sections, qui sont par la suite devenues des divisions :
@@ -616,44 +669,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Congrès</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier Congrès international de microbiologie s'est tenu à Paris en 1930. Lors du Xe Congrès international de microbiologie, à Mexico, en 1970, le Comité exécutif a décidé de créer trois sections couvrant les domaines de bactériologie, de virologie et de mycologie. Par la suite ces sections sont devenues trois divisions distinctes de l’IUMS possédant une autonomie complète dans la conduite de leurs affaires et l'organisation de leurs congrès internationaux. Le XIVe congrès de microbiologie, à Manchester en 1986, fut le dernier de la série des congrès internationaux de microbiologie.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
+          <t>Union_internationale_des_sociétés_de_microbiologie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,16 +690,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Congrès</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier Congrès international de microbiologie s'est tenu à Paris en 1930. Lors du Xe Congrès international de microbiologie, à Mexico, en 1970, le Comité exécutif a décidé de créer trois sections couvrant les domaines de bactériologie, de virologie et de mycologie. Par la suite ces sections sont devenues trois divisions distinctes de l’IUMS possédant une autonomie complète dans la conduite de leurs affaires et l'organisation de leurs congrès internationaux. Le XIVe congrès de microbiologie, à Manchester en 1986, fut le dernier de la série des congrès internationaux de microbiologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Union_internationale_des_sociétés_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_internationale_des_soci%C3%A9t%C3%A9s_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(en) International Commission on Microbiological Specifications for Foods (ICMSF)[2]
-(en) International Journal of Systematic and Evolutionary Microbiology[3], éditeur en chef: Professeur Aharon Oren.
-(en) International Journal of Food Microbiology (en)[4], éditeur en chef: L. Cocolin.
-(en) World Journal of Microbiology and Biotechnology[5]
-(en) Mycopathologia (en)[6]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) International Commission on Microbiological Specifications for Foods (ICMSF)
+(en) International Journal of Systematic and Evolutionary Microbiology, éditeur en chef: Professeur Aharon Oren.
+(en) International Journal of Food Microbiology (en), éditeur en chef: L. Cocolin.
+(en) World Journal of Microbiology and Biotechnology
+(en) Mycopathologia (en)</t>
         </is>
       </c>
     </row>
